--- a/Copy of 07-28-24 to 08-03-24 Milwaukee Schedule.xlsx
+++ b/Copy of 07-28-24 to 08-03-24 Milwaukee Schedule.xlsx
@@ -700,11 +700,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -749,7 +745,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>5:30 AM MEET BAYSHORE (COURTESY MEET)</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -4089,7 +4085,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4149,7 +4145,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4208,7 +4204,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4267,7 +4263,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4327,7 +4323,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>

--- a/Copy of 07-28-24 to 08-03-24 Milwaukee Schedule.xlsx
+++ b/Copy of 07-28-24 to 08-03-24 Milwaukee Schedule.xlsx
@@ -2512,11 +2512,7 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2573,7 +2569,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>5:30 AM MEET BAYSHORE (COURTESY MEET)</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
